--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cxcl14-Cxcr4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cxcl14-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cxcl14</t>
   </si>
   <si>
     <t>Cxcr4</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.9577789110333</v>
+        <v>2.382908333333333</v>
       </c>
       <c r="H2">
-        <v>1.9577789110333</v>
+        <v>7.148725000000001</v>
       </c>
       <c r="I2">
-        <v>0.02523833760643027</v>
+        <v>0.0254228216322871</v>
       </c>
       <c r="J2">
-        <v>0.02523833760643027</v>
+        <v>0.0254228216322871</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.0887068439149</v>
+        <v>24.15150666666667</v>
       </c>
       <c r="N2">
-        <v>24.0887068439149</v>
+        <v>72.45452</v>
       </c>
       <c r="O2">
-        <v>0.05792932504214226</v>
+        <v>0.05764986715944041</v>
       </c>
       <c r="P2">
-        <v>0.05792932504214226</v>
+        <v>0.05764986715944041</v>
       </c>
       <c r="Q2">
-        <v>47.16036225308011</v>
+        <v>57.55082649855556</v>
       </c>
       <c r="R2">
-        <v>47.16036225308011</v>
+        <v>517.9574384870001</v>
       </c>
       <c r="S2">
-        <v>0.001462039862726221</v>
+        <v>0.001465622289919499</v>
       </c>
       <c r="T2">
-        <v>0.001462039862726221</v>
+        <v>0.001465622289919499</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.9577789110333</v>
+        <v>2.382908333333333</v>
       </c>
       <c r="H3">
-        <v>1.9577789110333</v>
+        <v>7.148725000000001</v>
       </c>
       <c r="I3">
-        <v>0.02523833760643027</v>
+        <v>0.0254228216322871</v>
       </c>
       <c r="J3">
-        <v>0.02523833760643027</v>
+        <v>0.0254228216322871</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>159.175599089258</v>
+        <v>0.097204</v>
       </c>
       <c r="N3">
-        <v>159.175599089258</v>
+        <v>0.291612</v>
       </c>
       <c r="O3">
-        <v>0.3827907856643069</v>
+        <v>0.0002320268364499376</v>
       </c>
       <c r="P3">
-        <v>0.3827907856643069</v>
+        <v>0.0002320268364499377</v>
       </c>
       <c r="Q3">
-        <v>311.6306310480406</v>
+        <v>0.2316282216333333</v>
       </c>
       <c r="R3">
-        <v>311.6306310480406</v>
+        <v>2.0846539947</v>
       </c>
       <c r="S3">
-        <v>0.009661003081226463</v>
+        <v>5.898776876970616E-06</v>
       </c>
       <c r="T3">
-        <v>0.009661003081226463</v>
+        <v>5.898776876970616E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.9577789110333</v>
+        <v>2.382908333333333</v>
       </c>
       <c r="H4">
-        <v>1.9577789110333</v>
+        <v>7.148725000000001</v>
       </c>
       <c r="I4">
-        <v>0.02523833760643027</v>
+        <v>0.0254228216322871</v>
       </c>
       <c r="J4">
-        <v>0.02523833760643027</v>
+        <v>0.0254228216322871</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>223.464444502756</v>
+        <v>159.5522103333333</v>
       </c>
       <c r="N4">
-        <v>223.464444502756</v>
+        <v>478.656631</v>
       </c>
       <c r="O4">
-        <v>0.5373947437212477</v>
+        <v>0.3808525843816961</v>
       </c>
       <c r="P4">
-        <v>0.5373947437212477</v>
+        <v>0.3808525843816961</v>
       </c>
       <c r="Q4">
-        <v>437.493976813267</v>
+        <v>380.1982916050528</v>
       </c>
       <c r="R4">
-        <v>437.493976813267</v>
+        <v>3421.784624445475</v>
       </c>
       <c r="S4">
-        <v>0.01356294996995792</v>
+        <v>0.00968234732093143</v>
       </c>
       <c r="T4">
-        <v>0.01356294996995792</v>
+        <v>0.009682347320931432</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.9577789110333</v>
+        <v>2.382908333333333</v>
       </c>
       <c r="H5">
-        <v>1.9577789110333</v>
+        <v>7.148725000000001</v>
       </c>
       <c r="I5">
-        <v>0.02523833760643027</v>
+        <v>0.0254228216322871</v>
       </c>
       <c r="J5">
-        <v>0.02523833760643027</v>
+        <v>0.0254228216322871</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.10048331383285</v>
+        <v>225.4475503333333</v>
       </c>
       <c r="N5">
-        <v>9.10048331383285</v>
+        <v>676.342651</v>
       </c>
       <c r="O5">
-        <v>0.02188514557230325</v>
+        <v>0.5381453632487492</v>
       </c>
       <c r="P5">
-        <v>0.02188514557230325</v>
+        <v>0.5381453632487493</v>
       </c>
       <c r="Q5">
-        <v>17.81673431203239</v>
+        <v>537.2208464188861</v>
       </c>
       <c r="R5">
-        <v>17.81673431203239</v>
+        <v>4834.987617769976</v>
       </c>
       <c r="S5">
-        <v>0.0005523446925196619</v>
+        <v>0.0136811735821153</v>
       </c>
       <c r="T5">
-        <v>0.0005523446925196619</v>
+        <v>0.0136811735821153</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>74.43964679659651</v>
+        <v>2.382908333333333</v>
       </c>
       <c r="H6">
-        <v>74.43964679659651</v>
+        <v>7.148725000000001</v>
       </c>
       <c r="I6">
-        <v>0.9596246678151967</v>
+        <v>0.0254228216322871</v>
       </c>
       <c r="J6">
-        <v>0.9596246678151967</v>
+        <v>0.0254228216322871</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.0887068439149</v>
+        <v>9.685827333333334</v>
       </c>
       <c r="N6">
-        <v>24.0887068439149</v>
+        <v>29.057482</v>
       </c>
       <c r="O6">
-        <v>0.05792932504214226</v>
+        <v>0.02312015837366435</v>
       </c>
       <c r="P6">
-        <v>0.05792932504214226</v>
+        <v>0.02312015837366435</v>
       </c>
       <c r="Q6">
-        <v>1793.154829247782</v>
+        <v>23.08043866782778</v>
       </c>
       <c r="R6">
-        <v>1793.154829247782</v>
+        <v>207.72394801045</v>
       </c>
       <c r="S6">
-        <v>0.05559040930032432</v>
+        <v>0.0005877796624438977</v>
       </c>
       <c r="T6">
-        <v>0.05559040930032432</v>
+        <v>0.0005877796624438977</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>74.43964679659651</v>
+        <v>88.80405166666667</v>
       </c>
       <c r="H7">
-        <v>74.43964679659651</v>
+        <v>266.412155</v>
       </c>
       <c r="I7">
-        <v>0.9596246678151967</v>
+        <v>0.9474345001714605</v>
       </c>
       <c r="J7">
-        <v>0.9596246678151967</v>
+        <v>0.9474345001714604</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>159.175599089258</v>
+        <v>24.15150666666667</v>
       </c>
       <c r="N7">
-        <v>159.175599089258</v>
+        <v>72.45452</v>
       </c>
       <c r="O7">
-        <v>0.3827907856643069</v>
+        <v>0.05764986715944041</v>
       </c>
       <c r="P7">
-        <v>0.3827907856643069</v>
+        <v>0.05764986715944041</v>
       </c>
       <c r="Q7">
-        <v>11848.97537484101</v>
+        <v>2144.751645854511</v>
       </c>
       <c r="R7">
-        <v>11848.97537484101</v>
+        <v>19302.7648126906</v>
       </c>
       <c r="S7">
-        <v>0.3673354805358287</v>
+        <v>0.05461947307715551</v>
       </c>
       <c r="T7">
-        <v>0.3673354805358287</v>
+        <v>0.05461947307715551</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>74.43964679659651</v>
+        <v>88.80405166666667</v>
       </c>
       <c r="H8">
-        <v>74.43964679659651</v>
+        <v>266.412155</v>
       </c>
       <c r="I8">
-        <v>0.9596246678151967</v>
+        <v>0.9474345001714605</v>
       </c>
       <c r="J8">
-        <v>0.9596246678151967</v>
+        <v>0.9474345001714604</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>223.464444502756</v>
+        <v>0.097204</v>
       </c>
       <c r="N8">
-        <v>223.464444502756</v>
+        <v>0.291612</v>
       </c>
       <c r="O8">
-        <v>0.5373947437212477</v>
+        <v>0.0002320268364499376</v>
       </c>
       <c r="P8">
-        <v>0.5373947437212477</v>
+        <v>0.0002320268364499377</v>
       </c>
       <c r="Q8">
-        <v>16634.6143203828</v>
+        <v>8.632109038206666</v>
       </c>
       <c r="R8">
-        <v>16634.6143203828</v>
+        <v>77.68898134385999</v>
       </c>
       <c r="S8">
-        <v>0.5156972524291351</v>
+        <v>0.0002198302298183119</v>
       </c>
       <c r="T8">
-        <v>0.5156972524291351</v>
+        <v>0.0002198302298183119</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>74.43964679659651</v>
+        <v>88.80405166666667</v>
       </c>
       <c r="H9">
-        <v>74.43964679659651</v>
+        <v>266.412155</v>
       </c>
       <c r="I9">
-        <v>0.9596246678151967</v>
+        <v>0.9474345001714605</v>
       </c>
       <c r="J9">
-        <v>0.9596246678151967</v>
+        <v>0.9474345001714604</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.10048331383285</v>
+        <v>159.5522103333333</v>
       </c>
       <c r="N9">
-        <v>9.10048331383285</v>
+        <v>478.656631</v>
       </c>
       <c r="O9">
-        <v>0.02188514557230325</v>
+        <v>0.3808525843816961</v>
       </c>
       <c r="P9">
-        <v>0.02188514557230325</v>
+        <v>0.3808525843816961</v>
       </c>
       <c r="Q9">
-        <v>677.4367635600374</v>
+        <v>14168.8827299722</v>
       </c>
       <c r="R9">
-        <v>677.4367635600374</v>
+        <v>127519.9445697498</v>
       </c>
       <c r="S9">
-        <v>0.02100152554990873</v>
+        <v>0.3608328779226812</v>
       </c>
       <c r="T9">
-        <v>0.02100152554990873</v>
+        <v>0.3608328779226812</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.17420129741087</v>
+        <v>88.80405166666667</v>
       </c>
       <c r="H10">
-        <v>1.17420129741087</v>
+        <v>266.412155</v>
       </c>
       <c r="I10">
-        <v>0.01513699457837296</v>
+        <v>0.9474345001714605</v>
       </c>
       <c r="J10">
-        <v>0.01513699457837296</v>
+        <v>0.9474345001714604</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.0887068439149</v>
+        <v>225.4475503333333</v>
       </c>
       <c r="N10">
-        <v>24.0887068439149</v>
+        <v>676.342651</v>
       </c>
       <c r="O10">
-        <v>0.05792932504214226</v>
+        <v>0.5381453632487492</v>
       </c>
       <c r="P10">
-        <v>0.05792932504214226</v>
+        <v>0.5381453632487493</v>
       </c>
       <c r="Q10">
-        <v>28.28499082907498</v>
+        <v>20020.65590792477</v>
       </c>
       <c r="R10">
-        <v>28.28499082907498</v>
+        <v>180185.9031713229</v>
       </c>
       <c r="S10">
-        <v>0.0008768758790917121</v>
+        <v>0.5098574832491677</v>
       </c>
       <c r="T10">
-        <v>0.0008768758790917121</v>
+        <v>0.5098574832491678</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.17420129741087</v>
+        <v>88.80405166666667</v>
       </c>
       <c r="H11">
-        <v>1.17420129741087</v>
+        <v>266.412155</v>
       </c>
       <c r="I11">
-        <v>0.01513699457837296</v>
+        <v>0.9474345001714605</v>
       </c>
       <c r="J11">
-        <v>0.01513699457837296</v>
+        <v>0.9474345001714604</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>159.175599089258</v>
+        <v>9.685827333333334</v>
       </c>
       <c r="N11">
-        <v>159.175599089258</v>
+        <v>29.057482</v>
       </c>
       <c r="O11">
-        <v>0.3827907856643069</v>
+        <v>0.02312015837366435</v>
       </c>
       <c r="P11">
-        <v>0.3827907856643069</v>
+        <v>0.02312015837366435</v>
       </c>
       <c r="Q11">
-        <v>186.9041949667592</v>
+        <v>860.1407109437456</v>
       </c>
       <c r="R11">
-        <v>186.9041949667592</v>
+        <v>7741.26639849371</v>
       </c>
       <c r="S11">
-        <v>0.005794302047251738</v>
+        <v>0.02190483569263769</v>
       </c>
       <c r="T11">
-        <v>0.005794302047251738</v>
+        <v>0.02190483569263768</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.17420129741087</v>
+        <v>1.302294333333333</v>
       </c>
       <c r="H12">
-        <v>1.17420129741087</v>
+        <v>3.906883</v>
       </c>
       <c r="I12">
-        <v>0.01513699457837296</v>
+        <v>0.0138939446750595</v>
       </c>
       <c r="J12">
-        <v>0.01513699457837296</v>
+        <v>0.0138939446750595</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>223.464444502756</v>
+        <v>24.15150666666667</v>
       </c>
       <c r="N12">
-        <v>223.464444502756</v>
+        <v>72.45452</v>
       </c>
       <c r="O12">
-        <v>0.5373947437212477</v>
+        <v>0.05764986715944041</v>
       </c>
       <c r="P12">
-        <v>0.5373947437212477</v>
+        <v>0.05764986715944041</v>
       </c>
       <c r="Q12">
-        <v>262.3922406603355</v>
+        <v>31.45237027346222</v>
       </c>
       <c r="R12">
-        <v>262.3922406603355</v>
+        <v>283.07133246116</v>
       </c>
       <c r="S12">
-        <v>0.008134541322154651</v>
+        <v>0.0008009840648377944</v>
       </c>
       <c r="T12">
-        <v>0.008134541322154651</v>
+        <v>0.0008009840648377944</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.302294333333333</v>
+      </c>
+      <c r="H13">
+        <v>3.906883</v>
+      </c>
+      <c r="I13">
+        <v>0.0138939446750595</v>
+      </c>
+      <c r="J13">
+        <v>0.0138939446750595</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.097204</v>
+      </c>
+      <c r="N13">
+        <v>0.291612</v>
+      </c>
+      <c r="O13">
+        <v>0.0002320268364499376</v>
+      </c>
+      <c r="P13">
+        <v>0.0002320268364499377</v>
+      </c>
+      <c r="Q13">
+        <v>0.1265882183773333</v>
+      </c>
+      <c r="R13">
+        <v>1.139293965396</v>
+      </c>
+      <c r="S13">
+        <v>3.223768028764512E-06</v>
+      </c>
+      <c r="T13">
+        <v>3.223768028764512E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.302294333333333</v>
+      </c>
+      <c r="H14">
+        <v>3.906883</v>
+      </c>
+      <c r="I14">
+        <v>0.0138939446750595</v>
+      </c>
+      <c r="J14">
+        <v>0.0138939446750595</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>159.5522103333333</v>
+      </c>
+      <c r="N14">
+        <v>478.656631</v>
+      </c>
+      <c r="O14">
+        <v>0.3808525843816961</v>
+      </c>
+      <c r="P14">
+        <v>0.3808525843816961</v>
+      </c>
+      <c r="Q14">
+        <v>207.7839393879081</v>
+      </c>
+      <c r="R14">
+        <v>1870.055454491173</v>
+      </c>
+      <c r="S14">
+        <v>0.005291544736752714</v>
+      </c>
+      <c r="T14">
+        <v>0.005291544736752714</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.302294333333333</v>
+      </c>
+      <c r="H15">
+        <v>3.906883</v>
+      </c>
+      <c r="I15">
+        <v>0.0138939446750595</v>
+      </c>
+      <c r="J15">
+        <v>0.0138939446750595</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>225.4475503333333</v>
+      </c>
+      <c r="N15">
+        <v>676.342651</v>
+      </c>
+      <c r="O15">
+        <v>0.5381453632487492</v>
+      </c>
+      <c r="P15">
+        <v>0.5381453632487493</v>
+      </c>
+      <c r="Q15">
+        <v>293.5990672629814</v>
+      </c>
+      <c r="R15">
+        <v>2642.391605366833</v>
+      </c>
+      <c r="S15">
+        <v>0.007476961904117918</v>
+      </c>
+      <c r="T15">
+        <v>0.007476961904117918</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.17420129741087</v>
-      </c>
-      <c r="H13">
-        <v>1.17420129741087</v>
-      </c>
-      <c r="I13">
-        <v>0.01513699457837296</v>
-      </c>
-      <c r="J13">
-        <v>0.01513699457837296</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>9.10048331383285</v>
-      </c>
-      <c r="N13">
-        <v>9.10048331383285</v>
-      </c>
-      <c r="O13">
-        <v>0.02188514557230325</v>
-      </c>
-      <c r="P13">
-        <v>0.02188514557230325</v>
-      </c>
-      <c r="Q13">
-        <v>10.68579931416851</v>
-      </c>
-      <c r="R13">
-        <v>10.68579931416851</v>
-      </c>
-      <c r="S13">
-        <v>0.0003312753298748572</v>
-      </c>
-      <c r="T13">
-        <v>0.0003312753298748572</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.302294333333333</v>
+      </c>
+      <c r="H16">
+        <v>3.906883</v>
+      </c>
+      <c r="I16">
+        <v>0.0138939446750595</v>
+      </c>
+      <c r="J16">
+        <v>0.0138939446750595</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>9.685827333333334</v>
+      </c>
+      <c r="N16">
+        <v>29.057482</v>
+      </c>
+      <c r="O16">
+        <v>0.02312015837366435</v>
+      </c>
+      <c r="P16">
+        <v>0.02312015837366435</v>
+      </c>
+      <c r="Q16">
+        <v>12.61379804984511</v>
+      </c>
+      <c r="R16">
+        <v>113.524182448606</v>
+      </c>
+      <c r="S16">
+        <v>0.000321230201322306</v>
+      </c>
+      <c r="T16">
+        <v>0.000321230201322306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.6227566666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.86827</v>
+      </c>
+      <c r="I17">
+        <v>0.006644079184883042</v>
+      </c>
+      <c r="J17">
+        <v>0.006644079184883041</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>24.15150666666667</v>
+      </c>
+      <c r="N17">
+        <v>72.45452</v>
+      </c>
+      <c r="O17">
+        <v>0.05764986715944041</v>
+      </c>
+      <c r="P17">
+        <v>0.05764986715944041</v>
+      </c>
+      <c r="Q17">
+        <v>15.04051178671111</v>
+      </c>
+      <c r="R17">
+        <v>135.3646060804</v>
+      </c>
+      <c r="S17">
+        <v>0.0003830302824053105</v>
+      </c>
+      <c r="T17">
+        <v>0.0003830302824053104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.6227566666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.86827</v>
+      </c>
+      <c r="I18">
+        <v>0.006644079184883042</v>
+      </c>
+      <c r="J18">
+        <v>0.006644079184883041</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.097204</v>
+      </c>
+      <c r="N18">
+        <v>0.291612</v>
+      </c>
+      <c r="O18">
+        <v>0.0002320268364499376</v>
+      </c>
+      <c r="P18">
+        <v>0.0002320268364499377</v>
+      </c>
+      <c r="Q18">
+        <v>0.06053443902666667</v>
+      </c>
+      <c r="R18">
+        <v>0.54480995124</v>
+      </c>
+      <c r="S18">
+        <v>1.541604674391293E-06</v>
+      </c>
+      <c r="T18">
+        <v>1.541604674391293E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.6227566666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.86827</v>
+      </c>
+      <c r="I19">
+        <v>0.006644079184883042</v>
+      </c>
+      <c r="J19">
+        <v>0.006644079184883041</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>159.5522103333333</v>
+      </c>
+      <c r="N19">
+        <v>478.656631</v>
+      </c>
+      <c r="O19">
+        <v>0.3808525843816961</v>
+      </c>
+      <c r="P19">
+        <v>0.3808525843816961</v>
+      </c>
+      <c r="Q19">
+        <v>99.36220266648557</v>
+      </c>
+      <c r="R19">
+        <v>894.2598239983701</v>
+      </c>
+      <c r="S19">
+        <v>0.002530414728399339</v>
+      </c>
+      <c r="T19">
+        <v>0.002530414728399339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.6227566666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.86827</v>
+      </c>
+      <c r="I20">
+        <v>0.006644079184883042</v>
+      </c>
+      <c r="J20">
+        <v>0.006644079184883041</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>225.4475503333333</v>
+      </c>
+      <c r="N20">
+        <v>676.342651</v>
+      </c>
+      <c r="O20">
+        <v>0.5381453632487492</v>
+      </c>
+      <c r="P20">
+        <v>0.5381453632487493</v>
+      </c>
+      <c r="Q20">
+        <v>140.3989649537523</v>
+      </c>
+      <c r="R20">
+        <v>1263.59068458377</v>
+      </c>
+      <c r="S20">
+        <v>0.003575480406402338</v>
+      </c>
+      <c r="T20">
+        <v>0.003575480406402338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.6227566666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.86827</v>
+      </c>
+      <c r="I21">
+        <v>0.006644079184883042</v>
+      </c>
+      <c r="J21">
+        <v>0.006644079184883041</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>9.685827333333334</v>
+      </c>
+      <c r="N21">
+        <v>29.057482</v>
+      </c>
+      <c r="O21">
+        <v>0.02312015837366435</v>
+      </c>
+      <c r="P21">
+        <v>0.02312015837366435</v>
+      </c>
+      <c r="Q21">
+        <v>6.031913544015556</v>
+      </c>
+      <c r="R21">
+        <v>54.28722189614</v>
+      </c>
+      <c r="S21">
+        <v>0.0001536121630016626</v>
+      </c>
+      <c r="T21">
+        <v>0.0001536121630016626</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.6190613333333334</v>
+      </c>
+      <c r="H22">
+        <v>1.857184</v>
+      </c>
+      <c r="I22">
+        <v>0.006604654336309969</v>
+      </c>
+      <c r="J22">
+        <v>0.006604654336309968</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>24.15150666666667</v>
+      </c>
+      <c r="N22">
+        <v>72.45452</v>
+      </c>
+      <c r="O22">
+        <v>0.05764986715944041</v>
+      </c>
+      <c r="P22">
+        <v>0.05764986715944041</v>
+      </c>
+      <c r="Q22">
+        <v>14.95126391907556</v>
+      </c>
+      <c r="R22">
+        <v>134.56137527168</v>
+      </c>
+      <c r="S22">
+        <v>0.0003807574451222917</v>
+      </c>
+      <c r="T22">
+        <v>0.0003807574451222917</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.6190613333333334</v>
+      </c>
+      <c r="H23">
+        <v>1.857184</v>
+      </c>
+      <c r="I23">
+        <v>0.006604654336309969</v>
+      </c>
+      <c r="J23">
+        <v>0.006604654336309968</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.097204</v>
+      </c>
+      <c r="N23">
+        <v>0.291612</v>
+      </c>
+      <c r="O23">
+        <v>0.0002320268364499376</v>
+      </c>
+      <c r="P23">
+        <v>0.0002320268364499377</v>
+      </c>
+      <c r="Q23">
+        <v>0.06017523784533334</v>
+      </c>
+      <c r="R23">
+        <v>0.541577140608</v>
+      </c>
+      <c r="S23">
+        <v>1.532457051499365E-06</v>
+      </c>
+      <c r="T23">
+        <v>1.532457051499365E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.6190613333333334</v>
+      </c>
+      <c r="H24">
+        <v>1.857184</v>
+      </c>
+      <c r="I24">
+        <v>0.006604654336309969</v>
+      </c>
+      <c r="J24">
+        <v>0.006604654336309968</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>159.5522103333333</v>
+      </c>
+      <c r="N24">
+        <v>478.656631</v>
+      </c>
+      <c r="O24">
+        <v>0.3808525843816961</v>
+      </c>
+      <c r="P24">
+        <v>0.3808525843816961</v>
+      </c>
+      <c r="Q24">
+        <v>98.77260406523378</v>
+      </c>
+      <c r="R24">
+        <v>888.953436587104</v>
+      </c>
+      <c r="S24">
+        <v>0.002515399672931427</v>
+      </c>
+      <c r="T24">
+        <v>0.002515399672931427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.6190613333333334</v>
+      </c>
+      <c r="H25">
+        <v>1.857184</v>
+      </c>
+      <c r="I25">
+        <v>0.006604654336309969</v>
+      </c>
+      <c r="J25">
+        <v>0.006604654336309968</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>225.4475503333333</v>
+      </c>
+      <c r="N25">
+        <v>676.342651</v>
+      </c>
+      <c r="O25">
+        <v>0.5381453632487492</v>
+      </c>
+      <c r="P25">
+        <v>0.5381453632487493</v>
+      </c>
+      <c r="Q25">
+        <v>139.5658611060871</v>
+      </c>
+      <c r="R25">
+        <v>1256.092749954784</v>
+      </c>
+      <c r="S25">
+        <v>0.003554264106945955</v>
+      </c>
+      <c r="T25">
+        <v>0.003554264106945955</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.6190613333333334</v>
+      </c>
+      <c r="H26">
+        <v>1.857184</v>
+      </c>
+      <c r="I26">
+        <v>0.006604654336309969</v>
+      </c>
+      <c r="J26">
+        <v>0.006604654336309968</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>9.685827333333334</v>
+      </c>
+      <c r="N26">
+        <v>29.057482</v>
+      </c>
+      <c r="O26">
+        <v>0.02312015837366435</v>
+      </c>
+      <c r="P26">
+        <v>0.02312015837366435</v>
+      </c>
+      <c r="Q26">
+        <v>5.996121183409779</v>
+      </c>
+      <c r="R26">
+        <v>53.965090650688</v>
+      </c>
+      <c r="S26">
+        <v>0.0001527006542587955</v>
+      </c>
+      <c r="T26">
+        <v>0.0001527006542587955</v>
       </c>
     </row>
   </sheetData>
